--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -92,9 +92,6 @@
     <t>Obtenir la description d'un sandwich</t>
   </si>
   <si>
-    <t>sandwichs/{id}?fields=description</t>
-  </si>
-  <si>
     <t>sandwich par catégorie</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Obtenir la description détaillée d'un sandwich avec les tailles, prix et catégories du sandwich sous forme de liste imbriquée</t>
   </si>
   <si>
-    <t>sandwichs/{id}</t>
-  </si>
-  <si>
     <t>créer une commande</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>sandwichs/{id}[?details=0]</t>
+  </si>
+  <si>
+    <t>sandwichs/{id}?details=1</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1067,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1107,7 +1107,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1144,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1172,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
@@ -1184,10 +1184,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1212,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="9">
         <v>3</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1252,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="E13" s="9">
         <v>3</v>
@@ -1264,10 +1264,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1292,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -1304,10 +1304,10 @@
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1332,22 +1332,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="9">
         <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1372,19 +1372,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="9">
         <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
@@ -1410,19 +1410,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="9">
         <v>4</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
@@ -1448,19 +1448,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9">
         <v>3</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
@@ -1486,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="9">
         <v>2</v>
@@ -1498,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
@@ -1524,19 +1524,19 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="9">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
@@ -1562,19 +1562,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="9">
         <v>3</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
@@ -1600,10 +1600,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="9">
         <v>4</v>
@@ -1612,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -1702,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="9">
         <v>3</v>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="9">
         <v>3</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -1868,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="9">
         <v>5</v>
@@ -1902,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="9">
         <v>5</v>
@@ -1936,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="9">
         <v>6</v>
@@ -1970,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" s="9">
         <v>4</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="9">
         <v>3</v>
@@ -2102,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="20">
         <v>6</v>
@@ -2136,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="20">
         <v>3</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D40" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40">
         <f>SUM(E7:E38)</f>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -824,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1424,9 @@
       <c r="G17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -234,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">authentification  http basic, retourne un token jwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authentification</t>
   </si>
   <si>
     <t xml:space="preserve">accéder à sa carte de fidélité : montant + réduction</t>
@@ -585,21 +589,21 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1640,9 +1644,15 @@
       <c r="E30" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="2"/>
+      <c r="F30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1666,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="10" t="n">
         <v>5</v>
@@ -1700,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32" s="10" t="n">
         <v>6</v>
@@ -1734,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="10" t="n">
         <v>4</v>
@@ -1762,7 +1772,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1832,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36" s="10" t="n">
         <v>3</v>
@@ -1866,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="22" t="n">
         <v>6</v>
@@ -1900,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="E38" s="22" t="n">
         <v>3</v>
@@ -1928,7 +1938,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="0" t="n">
         <f aca="false">SUM(E7:E38)</f>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -589,21 +590,21 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1268,7 +1269,9 @@
       <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1306,7 +1309,9 @@
       <c r="G20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateur\Bureau\COURS\LP1 - CISIIE\Docker\LBS\lbsjee\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
+    <definedName name="Print_Area_0" localSheetId="0">Feuille1!$A$1:$G$49</definedName>
+    <definedName name="Print_Area_0_0" localSheetId="0">Feuille1!$A$1:$G$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,268 +29,265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
-  <si>
-    <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STORIES CONCERNANT l'API PUBLIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n°</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priorité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methode HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catégorie / id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la description d'une catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories/{id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection de catégories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la liste des catégories de sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des sandwichs disponibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la liste des sandwichs du catalogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandwichs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la description d'un sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandwichs/{id}[?details=0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandwich par catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtenir la liste des sandwichs d'une catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories/{id}/sandwichs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filtrage des sandwichs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la liste des sandwich avec filtrage sur le type de pain et l'image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandwichs?filters=pain,image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pagination des sanwichs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la liste des sandwichs avec pagination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandwichs?page={numPage}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un sandwich complet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir la description détaillée d'un sandwich avec les tailles, prix et catégories du sandwich sous forme de liste imbriquée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandwichs/{id}?details=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">créer une commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">créer une nouvelle commande  (vide) :  la date de livraison (date-heure) et les coordonnées du client sont transmises – retourne 1 token d'identification de la commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter  sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter un sandwich à une commande existante – en accord avec l'état de la commande – transmet les id de sandwich et taille et la quantité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commandes/{id}/sandwichs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier une commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modifier une commande existante : date de livraison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commandes/{id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payer une commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payer une commande en transmettant des coordonnées bancaires – (n°carte+date-expiration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commandes/{id}/checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">état de la commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtenir la commande pour suivre son état</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supprimer sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supprimer un sandwich dans une commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commandes/{id}/sandwichs/{id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modifier un item d'une commande (sandwich, taille, quantité)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modifier 1 élément d'une commande, en accord avec l'état de la commande.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtenir une facture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtenir une facture pour une commande payée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commandes/{id}/bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STORIES CONCERNANT l'API PRIVEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des commandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des commandes, filtrées sur l'état , triée par date de livraison et ordre de création – permet au point de vente de planifier la préparation des commandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">détail d'une commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accès au détail complet d'une commande, avec la liste des items, les noms des sandwichs et leur taille sous la forme de ressources imbriqués</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changement d'état d'une commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changement de l'état d'une commande – vérification de la validité de la transition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STORIES CONCERNANT LA GESTION DE LA CARTE DE FIDELITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s'authentifier pour utiliser sa carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authentification  http basic, retourne un token jwt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authentification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accéder à sa carte de fidélité : montant + réduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accès à une carte : le token jwt est nécessaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paiement fidélisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payer une commande en utilisant la carte : le montant est crédité sur la carte, on peut utiliser la réduction issue de la carte de fidélité – le montant cumulé est remis à 0 – le token jwt est nécessaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">créer sa carte de fidélité</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+  <si>
+    <t>USER STORIES pour l'application LE BON SANDWICH</t>
+  </si>
+  <si>
+    <t>STORIES CONCERNANT l'API PUBLIQUE</t>
+  </si>
+  <si>
+    <t>n°</t>
+  </si>
+  <si>
+    <t>priorité</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>Methode HTTP</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>catégorie / id</t>
+  </si>
+  <si>
+    <t>Obtenir la description d'une catégorie</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>categories/{id}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>collection de catégories</t>
+  </si>
+  <si>
+    <t>Obtenir la liste des catégories de sandwich</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>liste des sandwichs disponibles</t>
+  </si>
+  <si>
+    <t>Obtenir la liste des sandwichs du catalogue</t>
+  </si>
+  <si>
+    <t>sandwichs</t>
+  </si>
+  <si>
+    <t>un sandwich</t>
+  </si>
+  <si>
+    <t>Obtenir la description d'un sandwich</t>
+  </si>
+  <si>
+    <t>sandwichs/{id}[?details=0]</t>
+  </si>
+  <si>
+    <t>sandwich par catégorie</t>
+  </si>
+  <si>
+    <t>obtenir la liste des sandwichs d'une catégorie</t>
+  </si>
+  <si>
+    <t>categories/{id}/sandwichs</t>
+  </si>
+  <si>
+    <t>filtrage des sandwichs</t>
+  </si>
+  <si>
+    <t>Obtenir la liste des sandwich avec filtrage sur le type de pain et l'image</t>
+  </si>
+  <si>
+    <t>sandwichs?filters=pain,image</t>
+  </si>
+  <si>
+    <t>pagination des sanwichs</t>
+  </si>
+  <si>
+    <t>Obtenir la liste des sandwichs avec pagination</t>
+  </si>
+  <si>
+    <t>sandwichs?page={numPage}</t>
+  </si>
+  <si>
+    <t>un sandwich complet</t>
+  </si>
+  <si>
+    <t>Obtenir la description détaillée d'un sandwich avec les tailles, prix et catégories du sandwich sous forme de liste imbriquée</t>
+  </si>
+  <si>
+    <t>sandwichs/{id}?details=1</t>
+  </si>
+  <si>
+    <t>créer une commande</t>
+  </si>
+  <si>
+    <t>créer une nouvelle commande  (vide) :  la date de livraison (date-heure) et les coordonnées du client sont transmises – retourne 1 token d'identification de la commande</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>commandes</t>
+  </si>
+  <si>
+    <t>ajouter  sandwich</t>
+  </si>
+  <si>
+    <t>ajouter un sandwich à une commande existante – en accord avec l'état de la commande – transmet les id de sandwich et taille et la quantité</t>
+  </si>
+  <si>
+    <t>commandes/{id}/sandwichs</t>
+  </si>
+  <si>
+    <t>Modifier une commande</t>
+  </si>
+  <si>
+    <t>modifier une commande existante : date de livraison</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>commandes/{id}</t>
+  </si>
+  <si>
+    <t>Payer une commande</t>
+  </si>
+  <si>
+    <t>payer une commande en transmettant des coordonnées bancaires – (n°carte+date-expiration)</t>
+  </si>
+  <si>
+    <t>commandes/{id}/checkout</t>
+  </si>
+  <si>
+    <t>état de la commande</t>
+  </si>
+  <si>
+    <t>obtenir la commande pour suivre son état</t>
+  </si>
+  <si>
+    <t>supprimer sandwich</t>
+  </si>
+  <si>
+    <t>supprimer un sandwich dans une commande</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>commandes/{id}/sandwichs/{id}</t>
+  </si>
+  <si>
+    <t>modifier un item d'une commande (sandwich, taille, quantité)</t>
+  </si>
+  <si>
+    <t>modifier 1 élément d'une commande, en accord avec l'état de la commande.</t>
+  </si>
+  <si>
+    <t>obtenir une facture</t>
+  </si>
+  <si>
+    <t>Obtenir une facture pour une commande payée</t>
+  </si>
+  <si>
+    <t>commandes/{id}/bill</t>
+  </si>
+  <si>
+    <t>STORIES CONCERNANT l'API PRIVEE</t>
+  </si>
+  <si>
+    <t>liste des commandes</t>
+  </si>
+  <si>
+    <t>liste des commandes, filtrées sur l'état , triée par date de livraison et ordre de création – permet au point de vente de planifier la préparation des commandes</t>
+  </si>
+  <si>
+    <t>détail d'une commande</t>
+  </si>
+  <si>
+    <t>accès au détail complet d'une commande, avec la liste des items, les noms des sandwichs et leur taille sous la forme de ressources imbriqués</t>
+  </si>
+  <si>
+    <t>changement d'état d'une commande</t>
+  </si>
+  <si>
+    <t>changement de l'état d'une commande – vérification de la validité de la transition</t>
+  </si>
+  <si>
+    <t>STORIES CONCERNANT LA GESTION DE LA CARTE DE FIDELITE</t>
+  </si>
+  <si>
+    <t>s'authentifier pour utiliser sa carte</t>
+  </si>
+  <si>
+    <t>authentification  http basic, retourne un token jwt</t>
+  </si>
+  <si>
+    <t>authentification</t>
+  </si>
+  <si>
+    <t>accéder à sa carte de fidélité : montant + réduction</t>
+  </si>
+  <si>
+    <t>Accès à une carte : le token jwt est nécessaire</t>
+  </si>
+  <si>
+    <t>paiement fidélisé</t>
+  </si>
+  <si>
+    <t>payer une commande en utilisant la carte : le montant est crédité sur la carte, on peut utiliser la réduction issue de la carte de fidélité – le montant cumulé est remis à 0 – le token jwt est nécessaire</t>
+  </si>
+  <si>
+    <t>créer sa carte de fidélité</t>
   </si>
   <si>
     <t xml:space="preserve">créer une carte de fidélité – retourne un identifiant de carte </t>
   </si>
   <si>
-    <t xml:space="preserve">STORIES DIVERSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gérer CORS pour l'API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">écrire le code permettant de gérer CORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tests unitaires API publique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">écrire les tests permettant d'éviter le recours à Postman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tests unitaires API privée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total:</t>
+    <t>STORIES DIVERSES</t>
+  </si>
+  <si>
+    <t>gérer CORS pour l'API</t>
+  </si>
+  <si>
+    <t>écrire le code permettant de gérer CORS</t>
+  </si>
+  <si>
+    <t>tests unitaires API publique</t>
+  </si>
+  <si>
+    <t>écrire les tests permettant d'éviter le recours à Postman</t>
+  </si>
+  <si>
+    <t>tests unitaires API privée</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -298,47 +298,32 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -361,164 +346,108 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -577,37 +506,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V65536"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.3571428571429"/>
+    <col min="1" max="1" width="7.140625"/>
+    <col min="2" max="2" width="9.28515625"/>
+    <col min="3" max="3" width="25.140625"/>
+    <col min="4" max="4" width="52.85546875"/>
+    <col min="5" max="5" width="11.28515625"/>
+    <col min="6" max="6" width="15.7109375"/>
+    <col min="7" max="7" width="33.28515625"/>
+    <col min="8" max="8" width="9.28515625" style="1"/>
+    <col min="9" max="22" width="9.28515625"/>
+    <col min="23" max="1025" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -631,7 +871,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -657,7 +897,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -681,7 +921,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -705,7 +945,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -731,7 +971,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -769,11 +1009,11 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -782,7 +1022,7 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -809,11 +1049,11 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -822,7 +1062,7 @@
       <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -849,11 +1089,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -862,7 +1102,7 @@
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -889,11 +1129,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -902,7 +1142,7 @@
       <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -929,11 +1169,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -942,7 +1182,7 @@
       <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -969,11 +1209,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -982,7 +1222,7 @@
       <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>3</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1009,11 +1249,11 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1022,7 +1262,7 @@
       <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="10">
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1049,11 +1289,11 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1062,7 +1302,7 @@
       <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -1089,11 +1329,11 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+    <row r="15" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1102,7 +1342,7 @@
       <c r="D15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>4</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -1129,11 +1369,11 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+    <row r="16" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1142,7 +1382,7 @@
       <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>6</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -1169,11 +1409,11 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1182,7 +1422,7 @@
       <c r="D17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>4</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -1209,11 +1449,11 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+    <row r="18" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1222,7 +1462,7 @@
       <c r="D18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -1247,11 +1487,11 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1260,7 +1500,7 @@
       <c r="D19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="10">
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -1287,11 +1527,11 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1300,7 +1540,7 @@
       <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="10">
         <v>3</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -1327,11 +1567,11 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+    <row r="21" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1340,7 +1580,7 @@
       <c r="D21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E21" s="10">
         <v>3</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -1365,11 +1605,11 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1378,7 +1618,7 @@
       <c r="D22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="10">
         <v>4</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -1403,7 +1643,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
@@ -1429,7 +1669,7 @@
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
@@ -1467,11 +1707,11 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+    <row r="25" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>101</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1480,7 +1720,7 @@
       <c r="D25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="10">
         <v>3</v>
       </c>
       <c r="F25" s="12"/>
@@ -1501,11 +1741,11 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+    <row r="26" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>102</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -1514,7 +1754,7 @@
       <c r="D26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E26" s="10">
         <v>3</v>
       </c>
       <c r="F26" s="12"/>
@@ -1535,11 +1775,11 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+    <row r="27" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>103</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="10">
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -1548,7 +1788,7 @@
       <c r="D27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="10">
         <v>3</v>
       </c>
       <c r="F27" s="12"/>
@@ -1569,7 +1809,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -1595,7 +1835,7 @@
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
@@ -1633,11 +1873,11 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
+    <row r="30" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>200</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -1646,7 +1886,7 @@
       <c r="D30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="10">
         <v>5</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -1673,11 +1913,11 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+    <row r="31" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>201</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -1686,7 +1926,7 @@
       <c r="D31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="10">
         <v>5</v>
       </c>
       <c r="F31" s="12"/>
@@ -1707,11 +1947,11 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+    <row r="32" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>203</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="10">
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -1720,7 +1960,7 @@
       <c r="D32" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="10">
         <v>6</v>
       </c>
       <c r="F32" s="12"/>
@@ -1741,11 +1981,11 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>204</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="10">
         <v>3</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -1754,7 +1994,7 @@
       <c r="D33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="10">
         <v>4</v>
       </c>
       <c r="F33" s="12"/>
@@ -1775,7 +2015,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
@@ -1801,7 +2041,7 @@
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>2</v>
       </c>
@@ -1839,11 +2079,11 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>300</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="10">
         <v>1</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -1852,12 +2092,14 @@
       <c r="D36" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="10">
         <v>3</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1873,11 +2115,11 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="n">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
         <v>301</v>
       </c>
-      <c r="B37" s="22" t="n">
+      <c r="B37" s="22">
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -1886,7 +2128,7 @@
       <c r="D37" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="22" t="n">
+      <c r="E37" s="22">
         <v>6</v>
       </c>
       <c r="F37" s="25"/>
@@ -1907,11 +2149,11 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="n">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
         <v>302</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="22">
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -1920,7 +2162,7 @@
       <c r="D38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="22" t="n">
+      <c r="E38" s="22">
         <v>3</v>
       </c>
       <c r="F38" s="25"/>
@@ -1941,23 +2183,18 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D40" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <f aca="false">SUM(E7:E38)</f>
+      <c r="E40">
+        <f>SUM(E7:E38)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,7 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -830,7 +832,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,7 +842,7 @@
     <col min="3" max="3" width="25.140625"/>
     <col min="4" max="4" width="52.85546875"/>
     <col min="5" max="5" width="11.28515625"/>
-    <col min="6" max="6" width="15.7109375"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="33.28515625"/>
     <col min="8" max="8" width="9.28515625" style="1"/>
     <col min="9" max="22" width="9.28515625"/>
@@ -2095,8 +2097,12 @@
       <c r="E36" s="10">
         <v>3</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="F36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2131,8 +2137,12 @@
       <c r="E37" s="22">
         <v>6</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="F37" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2165,8 +2175,12 @@
       <c r="E38" s="22">
         <v>3</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="F38" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2184,7 +2198,7 @@
       <c r="V38" s="3"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>83</v>
       </c>
       <c r="E40">

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -284,13 +284,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>TESTS</t>
+  </si>
+  <si>
+    <t>card[?token=]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -332,6 +338,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -375,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,7 +973,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -996,7 +1011,9 @@
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1931,8 +1948,12 @@
       <c r="E31" s="10">
         <v>5</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2209,6 +2230,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>card[?token=]</t>
+  </si>
+  <si>
+    <t>card/checkout[?token=]</t>
+  </si>
+  <si>
+    <t>card</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +363,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF0DB4F"/>
         <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,6 +469,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -974,7 +995,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1014,7 +1035,7 @@
       <c r="I6" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1054,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1094,7 +1115,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1134,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1174,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1214,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1254,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1294,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1334,7 +1355,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1374,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1414,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1454,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1490,9 +1511,9 @@
       <c r="G18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1532,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1572,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1608,9 +1629,9 @@
       <c r="G21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1646,9 +1667,9 @@
       <c r="G22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1674,7 +1695,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -1712,7 +1733,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1744,9 +1765,9 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1778,9 +1799,9 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1812,9 +1833,9 @@
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1840,7 +1861,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -1878,7 +1899,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1918,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1949,14 +1970,14 @@
         <v>5</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1986,11 +2007,15 @@
       <c r="E32" s="10">
         <v>6</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="2"/>
+      <c r="F32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="27"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2020,11 +2045,15 @@
       <c r="E33" s="10">
         <v>4</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="27"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2050,7 +2079,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -2088,7 +2117,7 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2128,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="28"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2164,9 +2193,9 @@
       <c r="G37" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2202,9 +2231,9 @@
       <c r="G38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -70,9 +70,6 @@
     <t>categories/{id}</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>collection de catégories</t>
   </si>
   <si>
@@ -292,10 +289,13 @@
     <t>card[?token=]</t>
   </si>
   <si>
-    <t>card/checkout[?token=]</t>
-  </si>
-  <si>
-    <t>card</t>
+    <t>REALISE</t>
+  </si>
+  <si>
+    <t>card/create</t>
+  </si>
+  <si>
+    <t>card/{id}/checkout[?token=]</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,6 +486,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,7 +891,7 @@
     <col min="5" max="5" width="11.28515625"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="33.28515625"/>
-    <col min="8" max="8" width="9.28515625" style="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
     <col min="9" max="22" width="9.28515625"/>
     <col min="23" max="1025" width="18.28515625"/>
   </cols>
@@ -1031,9 +1042,11 @@
       <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="I6" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
@@ -1071,10 +1084,8 @@
       <c r="G7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1097,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
@@ -1109,12 +1120,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1137,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
@@ -1149,12 +1158,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1177,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
@@ -1189,12 +1196,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1217,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="10">
         <v>3</v>
@@ -1229,12 +1234,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="28"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1257,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="10">
         <v>3</v>
@@ -1269,12 +1272,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="28"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1297,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E13" s="10">
         <v>3</v>
@@ -1309,12 +1310,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="28"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1337,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
@@ -1349,12 +1348,10 @@
         <v>11</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="28"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1377,24 +1374,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="10">
         <v>4</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="28"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1417,24 +1412,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="10">
         <v>6</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="28"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1457,24 +1450,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="10">
         <v>4</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="28"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1497,22 +1488,22 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="10">
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="28"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1535,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="10">
         <v>2</v>
@@ -1547,12 +1538,10 @@
         <v>11</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="28"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1575,24 +1564,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="28"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1615,22 +1602,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="10">
         <v>3</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="27"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="28"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1653,10 +1640,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="E22" s="10">
         <v>4</v>
@@ -1665,10 +1652,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="27"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="28"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1685,7 +1672,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1755,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="10">
         <v>3</v>
@@ -1766,7 +1753,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="28"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1789,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="E26" s="10">
         <v>3</v>
@@ -1800,7 +1787,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="28"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1823,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="10">
         <v>3</v>
@@ -1834,7 +1821,7 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="28"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1851,7 +1838,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1921,24 +1908,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="E30" s="10">
         <v>5</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="28"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1961,22 +1946,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="E31" s="10">
         <v>5</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="28"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1999,22 +1984,22 @@
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="E32" s="10">
         <v>6</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" s="27"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="28"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2037,22 +2022,22 @@
         <v>3</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="E33" s="10">
         <v>4</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="28"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2069,7 +2054,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -2139,24 +2124,22 @@
         <v>1</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="E36" s="10">
         <v>3</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="28"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2179,22 +2162,22 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="E37" s="22">
         <v>6</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="27"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="28"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2217,22 +2200,22 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="22">
         <v>3</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" s="27"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="28"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2249,7 +2232,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D40" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <f>SUM(E7:E38)</f>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -878,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -428,7 +429,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,14 +494,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,7 +514,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,20 +634,21 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2397959183674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -999,7 +993,7 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1037,7 +1031,7 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1075,7 +1069,7 @@
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1113,7 +1107,7 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1151,7 +1145,7 @@
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1189,7 +1183,7 @@
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1227,7 +1221,7 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1265,7 +1259,7 @@
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1303,7 +1297,7 @@
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1341,7 +1335,7 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1377,9 +1371,9 @@
       <c r="G21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1393,7 +1387,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="n">
         <v>16</v>
       </c>
@@ -1415,9 +1409,9 @@
       <c r="G22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1432,30 +1426,30 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
@@ -1481,7 +1475,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1513,9 +1507,9 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1547,9 +1541,9 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1581,9 +1575,9 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1601,27 +1595,27 @@
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
@@ -1647,7 +1641,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1668,10 +1662,10 @@
       <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="11" t="n">
@@ -1684,8 +1678,8 @@
         <v>71</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1723,7 +1717,7 @@
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1759,9 +1753,9 @@
       <c r="G32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="21"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1799,7 +1793,7 @@
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1817,27 +1811,27 @@
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
@@ -1863,7 +1857,7 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="16"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -1884,10 +1878,10 @@
       <c r="B36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="25" t="s">
         <v>83</v>
       </c>
       <c r="E36" s="11" t="n">
@@ -1900,8 +1894,8 @@
         <v>84</v>
       </c>
       <c r="H36" s="14"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="16"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -1916,30 +1910,30 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="n">
+      <c r="A37" s="27" t="n">
         <v>301</v>
       </c>
-      <c r="B37" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="B37" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="29" t="n">
+      <c r="E37" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -1954,30 +1948,30 @@
       <c r="V37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="n">
+      <c r="A38" s="27" t="n">
         <v>302</v>
       </c>
-      <c r="B38" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="29" t="n">
+      <c r="E38" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="17"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1992,7 +1986,7 @@
       <c r="V38" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="30" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="0" t="n">

--- a/doc/LBS-stories-LP2.xlsx
+++ b/doc/LBS-stories-LP2.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -219,6 +220,9 @@
   </si>
   <si>
     <t xml:space="preserve">liste des commandes, filtrées sur l'état , triée par date de livraison et ordre de création – permet au point de vente de planifier la préparation des commandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commandes?statut={statutCommande}</t>
   </si>
   <si>
     <t xml:space="preserve">détail d'une commande</t>
@@ -633,22 +637,22 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1489,7 +1493,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
         <v>101</v>
       </c>
@@ -1505,9 +1509,13 @@
       <c r="E25" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="21"/>
+      <c r="F25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="15"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
@@ -1531,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1565,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1593,7 +1601,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -1663,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1675,7 +1683,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="26"/>
@@ -1701,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1713,7 +1721,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
@@ -1739,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1751,7 +1759,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="15"/>
@@ -1777,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1789,7 +1797,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
@@ -1809,7 +1817,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
@@ -1879,19 +1887,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="26"/>
@@ -1917,19 +1925,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="27" t="n">
         <v>6</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="15"/>
@@ -1955,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="E38" s="27" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="15"/>
@@ -1987,7 +1995,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="0" t="n">
         <f aca="false">SUM(E7:E38)</f>
